--- a/plots/countries/plot data/Estonia.xlsx
+++ b/plots/countries/plot data/Estonia.xlsx
@@ -505,7 +505,7 @@
         <v>17</v>
       </c>
       <c r="F2" t="n">
-        <v>2.72344847584766</v>
+        <v>2.73461885086827</v>
       </c>
     </row>
     <row r="3">
@@ -545,7 +545,7 @@
         <v>17</v>
       </c>
       <c r="F4" t="n">
-        <v>0.0717293386851508</v>
+        <v>0.0717293386851507</v>
       </c>
     </row>
     <row r="5">
@@ -605,7 +605,7 @@
         <v>17</v>
       </c>
       <c r="F7" t="n">
-        <v>2.5710964569621</v>
+        <v>2.57110026136604</v>
       </c>
     </row>
     <row r="8">
@@ -625,7 +625,7 @@
         <v>17</v>
       </c>
       <c r="F8" t="n">
-        <v>0.963136547978259</v>
+        <v>0.952360277098114</v>
       </c>
     </row>
     <row r="9">
@@ -645,7 +645,7 @@
         <v>17</v>
       </c>
       <c r="F9" t="n">
-        <v>-5.23526783484011</v>
+        <v>-4.97004634819834</v>
       </c>
     </row>
     <row r="10">
@@ -665,7 +665,7 @@
         <v>17</v>
       </c>
       <c r="F10" t="n">
-        <v>0.404968048021411</v>
+        <v>0.408569154894611</v>
       </c>
     </row>
     <row r="11">
@@ -685,7 +685,7 @@
         <v>17</v>
       </c>
       <c r="F11" t="n">
-        <v>2.60990405737061</v>
+        <v>2.61980366074593</v>
       </c>
     </row>
     <row r="12">
@@ -725,7 +725,7 @@
         <v>17</v>
       </c>
       <c r="F13" t="n">
-        <v>0.0715611982525011</v>
+        <v>0.0715611982525013</v>
       </c>
     </row>
     <row r="14">
@@ -785,7 +785,7 @@
         <v>17</v>
       </c>
       <c r="F16" t="n">
-        <v>2.34634812784316</v>
+        <v>2.34635207224205</v>
       </c>
     </row>
     <row r="17">
@@ -805,7 +805,7 @@
         <v>17</v>
       </c>
       <c r="F17" t="n">
-        <v>0.965500321824526</v>
+        <v>0.956755726050882</v>
       </c>
     </row>
     <row r="18">
@@ -825,7 +825,7 @@
         <v>17</v>
       </c>
       <c r="F18" t="n">
-        <v>-5.08828520011541</v>
+        <v>-4.8226091854716</v>
       </c>
     </row>
     <row r="19">
@@ -845,7 +845,7 @@
         <v>17</v>
       </c>
       <c r="F19" t="n">
-        <v>0.419375768091871</v>
+        <v>0.422679150845948</v>
       </c>
     </row>
     <row r="20">
@@ -865,7 +865,7 @@
         <v>17</v>
       </c>
       <c r="F20" t="n">
-        <v>2.20885455282336</v>
+        <v>2.21855858639487</v>
       </c>
     </row>
     <row r="21">
@@ -965,7 +965,7 @@
         <v>17</v>
       </c>
       <c r="F25" t="n">
-        <v>1.26608339126432</v>
+        <v>1.26608746966316</v>
       </c>
     </row>
     <row r="26">
@@ -985,7 +985,7 @@
         <v>17</v>
       </c>
       <c r="F26" t="n">
-        <v>0.572444765388548</v>
+        <v>0.567734814422239</v>
       </c>
     </row>
     <row r="27">
@@ -1005,7 +1005,7 @@
         <v>17</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.30849587792179</v>
+        <v>-4.04243503326684</v>
       </c>
     </row>
     <row r="28">
@@ -1025,7 +1025,7 @@
         <v>17</v>
       </c>
       <c r="F28" t="n">
-        <v>0.432208134139297</v>
+        <v>0.436617605979602</v>
       </c>
     </row>
     <row r="29">
@@ -1045,7 +1045,7 @@
         <v>17</v>
       </c>
       <c r="F29" t="n">
-        <v>1.7336672349973</v>
+        <v>1.74425577484717</v>
       </c>
     </row>
     <row r="30">
@@ -1065,7 +1065,7 @@
         <v>17</v>
       </c>
       <c r="F30" t="n">
-        <v>0.814774709011191</v>
+        <v>0.814774709011195</v>
       </c>
     </row>
     <row r="31">
@@ -1085,7 +1085,7 @@
         <v>17</v>
       </c>
       <c r="F31" t="n">
-        <v>0.0207688643411142</v>
+        <v>0.0207688643411141</v>
       </c>
     </row>
     <row r="32">
@@ -1145,7 +1145,7 @@
         <v>17</v>
       </c>
       <c r="F34" t="n">
-        <v>1.40483483465515</v>
+        <v>1.40483869152835</v>
       </c>
     </row>
     <row r="35">
@@ -1165,7 +1165,7 @@
         <v>17</v>
       </c>
       <c r="F35" t="n">
-        <v>0.351361858234172</v>
+        <v>0.349263070910232</v>
       </c>
     </row>
     <row r="36">
@@ -1185,7 +1185,7 @@
         <v>17</v>
       </c>
       <c r="F36" t="n">
-        <v>-5.19298530957992</v>
+        <v>-4.92646014590838</v>
       </c>
     </row>
     <row r="37">
@@ -1205,7 +1205,7 @@
         <v>17</v>
       </c>
       <c r="F37" t="n">
-        <v>0.452835457649626</v>
+        <v>0.4551907039676</v>
       </c>
     </row>
     <row r="38">
@@ -1225,7 +1225,7 @@
         <v>17</v>
       </c>
       <c r="F38" t="n">
-        <v>1.5843584811538</v>
+        <v>1.59470771163019</v>
       </c>
     </row>
     <row r="39">
@@ -1245,7 +1245,7 @@
         <v>17</v>
       </c>
       <c r="F39" t="n">
-        <v>0.561408072266898</v>
+        <v>0.561408072266899</v>
       </c>
     </row>
     <row r="40">
@@ -1265,7 +1265,7 @@
         <v>17</v>
       </c>
       <c r="F40" t="n">
-        <v>0.0296585015545763</v>
+        <v>0.0296585015545761</v>
       </c>
     </row>
     <row r="41">
@@ -1325,7 +1325,7 @@
         <v>17</v>
       </c>
       <c r="F43" t="n">
-        <v>1.70799646620774</v>
+        <v>1.70800031934279</v>
       </c>
     </row>
     <row r="44">
@@ -1345,7 +1345,7 @@
         <v>17</v>
       </c>
       <c r="F44" t="n">
-        <v>0.597581644559005</v>
+        <v>0.595701250679005</v>
       </c>
     </row>
     <row r="45">
@@ -1365,7 +1365,7 @@
         <v>17</v>
       </c>
       <c r="F45" t="n">
-        <v>-4.79072567291173</v>
+        <v>-4.39124996491469</v>
       </c>
     </row>
     <row r="46">
@@ -1385,7 +1385,7 @@
         <v>17</v>
       </c>
       <c r="F46" t="n">
-        <v>0.451254706624598</v>
+        <v>0.45546636693004</v>
       </c>
     </row>
     <row r="47">
@@ -1405,7 +1405,7 @@
         <v>17</v>
       </c>
       <c r="F47" t="n">
-        <v>1.40535498498536</v>
+        <v>1.41673797270418</v>
       </c>
     </row>
     <row r="48">
@@ -1425,7 +1425,7 @@
         <v>17</v>
       </c>
       <c r="F48" t="n">
-        <v>0.581977190617408</v>
+        <v>0.581977190617411</v>
       </c>
     </row>
     <row r="49">
@@ -1525,7 +1525,7 @@
         <v>17</v>
       </c>
       <c r="F53" t="n">
-        <v>0.632755000066452</v>
+        <v>0.631236173146452</v>
       </c>
     </row>
     <row r="54">
@@ -1545,7 +1545,7 @@
         <v>17</v>
       </c>
       <c r="F54" t="n">
-        <v>-4.96367700662487</v>
+        <v>-4.56438638390736</v>
       </c>
     </row>
     <row r="55">
@@ -1565,7 +1565,7 @@
         <v>17</v>
       </c>
       <c r="F55" t="n">
-        <v>0.437328759145957</v>
+        <v>0.439870018446071</v>
       </c>
     </row>
     <row r="56">
@@ -1585,7 +1585,7 @@
         <v>17</v>
       </c>
       <c r="F56" t="n">
-        <v>1.29855414962823</v>
+        <v>1.30996405792357</v>
       </c>
     </row>
     <row r="57">
@@ -1605,7 +1605,7 @@
         <v>17</v>
       </c>
       <c r="F57" t="n">
-        <v>0.727961940248294</v>
+        <v>0.727961940248295</v>
       </c>
     </row>
     <row r="58">
@@ -1645,7 +1645,7 @@
         <v>17</v>
       </c>
       <c r="F59" t="n">
-        <v>1.56595594602273</v>
+        <v>1.56595594602272</v>
       </c>
     </row>
     <row r="60">
@@ -1685,7 +1685,7 @@
         <v>17</v>
       </c>
       <c r="F61" t="n">
-        <v>1.7742188673696</v>
+        <v>1.77422274796821</v>
       </c>
     </row>
     <row r="62">
@@ -1705,7 +1705,7 @@
         <v>17</v>
       </c>
       <c r="F62" t="n">
-        <v>0.648429086823696</v>
+        <v>0.647368020473696</v>
       </c>
     </row>
     <row r="63">
@@ -1725,7 +1725,7 @@
         <v>17</v>
       </c>
       <c r="F63" t="n">
-        <v>-5.26049631207016</v>
+        <v>-4.86095787748194</v>
       </c>
     </row>
     <row r="64">
@@ -1745,7 +1745,7 @@
         <v>17</v>
       </c>
       <c r="F64" t="n">
-        <v>0.479840287729215</v>
+        <v>0.484434560245502</v>
       </c>
     </row>
     <row r="65">
@@ -1765,7 +1765,7 @@
         <v>17</v>
       </c>
       <c r="F65" t="n">
-        <v>1.30894011557378</v>
+        <v>1.31998078542601</v>
       </c>
     </row>
     <row r="66">
@@ -1785,7 +1785,7 @@
         <v>17</v>
       </c>
       <c r="F66" t="n">
-        <v>0.616826624704094</v>
+        <v>0.616826624704099</v>
       </c>
     </row>
     <row r="67">
@@ -1825,7 +1825,7 @@
         <v>17</v>
       </c>
       <c r="F68" t="n">
-        <v>1.32294282550436</v>
+        <v>1.32294282550435</v>
       </c>
     </row>
     <row r="69">
@@ -1865,7 +1865,7 @@
         <v>17</v>
       </c>
       <c r="F70" t="n">
-        <v>1.87019655663785</v>
+        <v>1.87020039308283</v>
       </c>
     </row>
     <row r="71">
@@ -1885,7 +1885,7 @@
         <v>17</v>
       </c>
       <c r="F71" t="n">
-        <v>0.699124116460331</v>
+        <v>0.699177345320331</v>
       </c>
     </row>
     <row r="72">
@@ -1905,7 +1905,7 @@
         <v>17</v>
       </c>
       <c r="F72" t="n">
-        <v>-5.38737450166317</v>
+        <v>-4.98755313325516</v>
       </c>
     </row>
     <row r="73">
@@ -1925,7 +1925,7 @@
         <v>17</v>
       </c>
       <c r="F73" t="n">
-        <v>0.542913022177247</v>
+        <v>0.534273535746726</v>
       </c>
     </row>
     <row r="74">
@@ -1945,7 +1945,7 @@
         <v>17</v>
       </c>
       <c r="F74" t="n">
-        <v>1.32682576493726</v>
+        <v>1.33733249269792</v>
       </c>
     </row>
     <row r="75">
@@ -1965,7 +1965,7 @@
         <v>17</v>
       </c>
       <c r="F75" t="n">
-        <v>0.569087590100654</v>
+        <v>0.56908759010065</v>
       </c>
     </row>
     <row r="76">
@@ -2045,7 +2045,7 @@
         <v>17</v>
       </c>
       <c r="F79" t="n">
-        <v>1.93614652892286</v>
+        <v>1.93615032714397</v>
       </c>
     </row>
     <row r="80">
@@ -2065,7 +2065,7 @@
         <v>17</v>
       </c>
       <c r="F80" t="n">
-        <v>0.75168424254296</v>
+        <v>0.75173628626296</v>
       </c>
     </row>
     <row r="81">
@@ -2085,7 +2085,7 @@
         <v>17</v>
       </c>
       <c r="F81" t="n">
-        <v>-4.89703130340956</v>
+        <v>-4.50764784079315</v>
       </c>
     </row>
     <row r="82">
@@ -2105,7 +2105,7 @@
         <v>17</v>
       </c>
       <c r="F82" t="n">
-        <v>0.562252157743736</v>
+        <v>0.54989836772292</v>
       </c>
     </row>
     <row r="83">
@@ -2125,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="F83" t="n">
-        <v>1.15220688818226</v>
+        <v>1.16125506936703</v>
       </c>
     </row>
     <row r="84">
@@ -2145,7 +2145,7 @@
         <v>17</v>
       </c>
       <c r="F84" t="n">
-        <v>0.5449527645321</v>
+        <v>0.544952764532099</v>
       </c>
     </row>
     <row r="85">
@@ -2225,7 +2225,7 @@
         <v>17</v>
       </c>
       <c r="F88" t="n">
-        <v>1.80793552042841</v>
+        <v>1.8079392441495</v>
       </c>
     </row>
     <row r="89">
@@ -2245,7 +2245,7 @@
         <v>17</v>
       </c>
       <c r="F89" t="n">
-        <v>0.686368627614325</v>
+        <v>0.686417827534325</v>
       </c>
     </row>
     <row r="90">
@@ -2265,7 +2265,7 @@
         <v>17</v>
       </c>
       <c r="F90" t="n">
-        <v>-3.79822760434815</v>
+        <v>-3.41850191593739</v>
       </c>
     </row>
     <row r="91">
@@ -2285,7 +2285,7 @@
         <v>17</v>
       </c>
       <c r="F91" t="n">
-        <v>0.569948038940305</v>
+        <v>0.552521502821718</v>
       </c>
     </row>
     <row r="92">
@@ -2305,7 +2305,7 @@
         <v>17</v>
       </c>
       <c r="F92" t="n">
-        <v>1.15843822384652</v>
+        <v>1.16745067134627</v>
       </c>
     </row>
     <row r="93">
@@ -2325,7 +2325,7 @@
         <v>17</v>
       </c>
       <c r="F93" t="n">
-        <v>0.548534024817011</v>
+        <v>0.548534024817015</v>
       </c>
     </row>
     <row r="94">
@@ -2345,7 +2345,7 @@
         <v>17</v>
       </c>
       <c r="F94" t="n">
-        <v>0.0383793891711108</v>
+        <v>0.0383793891711106</v>
       </c>
     </row>
     <row r="95">
@@ -2365,7 +2365,7 @@
         <v>17</v>
       </c>
       <c r="F95" t="n">
-        <v>0.889385253958133</v>
+        <v>0.889385253958129</v>
       </c>
     </row>
     <row r="96">
@@ -2405,7 +2405,7 @@
         <v>17</v>
       </c>
       <c r="F97" t="n">
-        <v>1.78551220202853</v>
+        <v>1.78551585803615</v>
       </c>
     </row>
     <row r="98">
@@ -2425,7 +2425,7 @@
         <v>17</v>
       </c>
       <c r="F98" t="n">
-        <v>0.690743774109649</v>
+        <v>0.690793524369649</v>
       </c>
     </row>
     <row r="99">
@@ -2445,7 +2445,7 @@
         <v>17</v>
       </c>
       <c r="F99" t="n">
-        <v>-3.46966789435626</v>
+        <v>-2.9540693499634</v>
       </c>
     </row>
     <row r="100">
@@ -2465,7 +2465,7 @@
         <v>17</v>
       </c>
       <c r="F100" t="n">
-        <v>0.622400657210843</v>
+        <v>0.60791738350745</v>
       </c>
     </row>
     <row r="101">
@@ -2485,7 +2485,7 @@
         <v>17</v>
       </c>
       <c r="F101" t="n">
-        <v>1.16264256896108</v>
+        <v>1.17193975832293</v>
       </c>
     </row>
     <row r="102">
@@ -2505,7 +2505,7 @@
         <v>17</v>
       </c>
       <c r="F102" t="n">
-        <v>0.71509122161879</v>
+        <v>0.715091221618791</v>
       </c>
     </row>
     <row r="103">
@@ -2585,7 +2585,7 @@
         <v>17</v>
       </c>
       <c r="F106" t="n">
-        <v>2.11025669270407</v>
+        <v>2.11026155453725</v>
       </c>
     </row>
     <row r="107">
@@ -2605,7 +2605,7 @@
         <v>17</v>
       </c>
       <c r="F107" t="n">
-        <v>0.724953632878093</v>
+        <v>0.725016806438093</v>
       </c>
     </row>
     <row r="108">
@@ -2625,7 +2625,7 @@
         <v>17</v>
       </c>
       <c r="F108" t="n">
-        <v>-2.84392380023094</v>
+        <v>-2.33810846534815</v>
       </c>
     </row>
     <row r="109">
@@ -2645,7 +2645,7 @@
         <v>17</v>
       </c>
       <c r="F109" t="n">
-        <v>0.631113305343524</v>
+        <v>0.619076190979745</v>
       </c>
     </row>
     <row r="110">
@@ -2665,7 +2665,7 @@
         <v>17</v>
       </c>
       <c r="F110" t="n">
-        <v>1.10187962515844</v>
+        <v>1.11125076662754</v>
       </c>
     </row>
     <row r="111">
@@ -2685,7 +2685,7 @@
         <v>17</v>
       </c>
       <c r="F111" t="n">
-        <v>0.695690274022122</v>
+        <v>0.695690274022124</v>
       </c>
     </row>
     <row r="112">
@@ -2765,7 +2765,7 @@
         <v>17</v>
       </c>
       <c r="F115" t="n">
-        <v>2.20132582044179</v>
+        <v>2.20133666647017</v>
       </c>
     </row>
     <row r="116">
@@ -2785,7 +2785,7 @@
         <v>17</v>
       </c>
       <c r="F116" t="n">
-        <v>0.547544527549191</v>
+        <v>0.547608323237191</v>
       </c>
     </row>
     <row r="117">
@@ -2805,7 +2805,7 @@
         <v>17</v>
       </c>
       <c r="F117" t="n">
-        <v>-1.7674288774894</v>
+        <v>-1.2709113954029</v>
       </c>
     </row>
     <row r="118">
@@ -2825,7 +2825,7 @@
         <v>17</v>
       </c>
       <c r="F118" t="n">
-        <v>0.617255902928016</v>
+        <v>0.607251792355196</v>
       </c>
     </row>
     <row r="119">
@@ -2845,7 +2845,7 @@
         <v>17</v>
       </c>
       <c r="F119" t="n">
-        <v>1.15117885395308</v>
+        <v>1.16067147385473</v>
       </c>
     </row>
     <row r="120">
@@ -2865,7 +2865,7 @@
         <v>17</v>
       </c>
       <c r="F120" t="n">
-        <v>0.74474969079244</v>
+        <v>0.744749690792436</v>
       </c>
     </row>
     <row r="121">
@@ -2885,7 +2885,7 @@
         <v>17</v>
       </c>
       <c r="F121" t="n">
-        <v>0.0395299381116765</v>
+        <v>0.0395299381116764</v>
       </c>
     </row>
     <row r="122">
@@ -2905,7 +2905,7 @@
         <v>17</v>
       </c>
       <c r="F122" t="n">
-        <v>0.932277658941933</v>
+        <v>0.932277658941936</v>
       </c>
     </row>
     <row r="123">
@@ -2945,7 +2945,7 @@
         <v>17</v>
       </c>
       <c r="F124" t="n">
-        <v>2.13087619662311</v>
+        <v>2.13089769883466</v>
       </c>
     </row>
     <row r="125">
@@ -2965,7 +2965,7 @@
         <v>17</v>
       </c>
       <c r="F125" t="n">
-        <v>0.595169599469552</v>
+        <v>0.595232309381552</v>
       </c>
     </row>
     <row r="126">
@@ -2985,7 +2985,7 @@
         <v>17</v>
       </c>
       <c r="F126" t="n">
-        <v>-0.977353274976736</v>
+        <v>-0.48905261917269</v>
       </c>
     </row>
     <row r="127">
@@ -3005,7 +3005,7 @@
         <v>17</v>
       </c>
       <c r="F127" t="n">
-        <v>0.603703187588288</v>
+        <v>0.595388727200017</v>
       </c>
     </row>
     <row r="128">
@@ -3025,7 +3025,7 @@
         <v>17</v>
       </c>
       <c r="F128" t="n">
-        <v>1.19198800330807</v>
+        <v>1.20157058953454</v>
       </c>
     </row>
     <row r="129">
@@ -3045,7 +3045,7 @@
         <v>17</v>
       </c>
       <c r="F129" t="n">
-        <v>0.72884907555489</v>
+        <v>0.728849075554891</v>
       </c>
     </row>
     <row r="130">
@@ -3085,7 +3085,7 @@
         <v>17</v>
       </c>
       <c r="F131" t="n">
-        <v>0.98123140960667</v>
+        <v>0.981231409606677</v>
       </c>
     </row>
     <row r="132">
@@ -3125,7 +3125,7 @@
         <v>17</v>
       </c>
       <c r="F133" t="n">
-        <v>2.16948717021018</v>
+        <v>2.16951667775637</v>
       </c>
     </row>
     <row r="134">
@@ -3145,7 +3145,7 @@
         <v>17</v>
       </c>
       <c r="F134" t="n">
-        <v>0.737084063011898</v>
+        <v>0.737084061611898</v>
       </c>
     </row>
     <row r="135">
@@ -3165,7 +3165,7 @@
         <v>17</v>
       </c>
       <c r="F135" t="n">
-        <v>-1.60722775321966</v>
+        <v>-1.38169267426651</v>
       </c>
     </row>
     <row r="136">
@@ -3185,7 +3185,7 @@
         <v>17</v>
       </c>
       <c r="F136" t="n">
-        <v>0.597305920812522</v>
+        <v>0.590395731828603</v>
       </c>
     </row>
     <row r="137">
@@ -3205,7 +3205,7 @@
         <v>17</v>
       </c>
       <c r="F137" t="n">
-        <v>1.2118037114904</v>
+        <v>1.22137771520752</v>
       </c>
     </row>
     <row r="138">
@@ -3245,7 +3245,7 @@
         <v>17</v>
       </c>
       <c r="F139" t="n">
-        <v>0.0464873399703426</v>
+        <v>0.0464873399703425</v>
       </c>
     </row>
     <row r="140">
@@ -3265,7 +3265,7 @@
         <v>17</v>
       </c>
       <c r="F140" t="n">
-        <v>1.01777827461917</v>
+        <v>1.01777827461918</v>
       </c>
     </row>
     <row r="141">
@@ -3305,7 +3305,7 @@
         <v>17</v>
       </c>
       <c r="F142" t="n">
-        <v>2.23930922354949</v>
+        <v>2.23934921366816</v>
       </c>
     </row>
     <row r="143">
@@ -3325,7 +3325,7 @@
         <v>17</v>
       </c>
       <c r="F143" t="n">
-        <v>0.723690864445726</v>
+        <v>0.723690868845726</v>
       </c>
     </row>
     <row r="144">
@@ -3345,7 +3345,7 @@
         <v>17</v>
       </c>
       <c r="F144" t="n">
-        <v>-2.92727474644749</v>
+        <v>-2.44234250322767</v>
       </c>
     </row>
     <row r="145">
@@ -3365,7 +3365,7 @@
         <v>17</v>
       </c>
       <c r="F145" t="n">
-        <v>0.568292516796775</v>
+        <v>0.562549423927502</v>
       </c>
     </row>
     <row r="146">
@@ -3385,7 +3385,7 @@
         <v>17</v>
       </c>
       <c r="F146" t="n">
-        <v>1.20692619564588</v>
+        <v>1.21683879350538</v>
       </c>
     </row>
     <row r="147">
@@ -3405,7 +3405,7 @@
         <v>17</v>
       </c>
       <c r="F147" t="n">
-        <v>0.630163711811201</v>
+        <v>0.630163711811202</v>
       </c>
     </row>
     <row r="148">
@@ -3485,7 +3485,7 @@
         <v>17</v>
       </c>
       <c r="F151" t="n">
-        <v>2.38655376995051</v>
+        <v>2.38661604750982</v>
       </c>
     </row>
     <row r="152">
@@ -3505,7 +3505,7 @@
         <v>17</v>
       </c>
       <c r="F152" t="n">
-        <v>0.763487438496977</v>
+        <v>0.7634863166694</v>
       </c>
     </row>
     <row r="153">
@@ -3525,7 +3525,7 @@
         <v>17</v>
       </c>
       <c r="F153" t="n">
-        <v>-4.01156257491534</v>
+        <v>-4.71742824389156</v>
       </c>
     </row>
     <row r="154">
@@ -3545,7 +3545,7 @@
         <v>17</v>
       </c>
       <c r="F154" t="n">
-        <v>0.551077619954497</v>
+        <v>0.546304505797917</v>
       </c>
     </row>
     <row r="155">
@@ -3565,7 +3565,7 @@
         <v>17</v>
       </c>
       <c r="F155" t="n">
-        <v>1.2587020874659</v>
+        <v>1.26745893464064</v>
       </c>
     </row>
     <row r="156">
@@ -3585,7 +3585,7 @@
         <v>17</v>
       </c>
       <c r="F156" t="n">
-        <v>0.625078591854935</v>
+        <v>0.625078591854933</v>
       </c>
     </row>
     <row r="157">
@@ -3665,7 +3665,7 @@
         <v>17</v>
       </c>
       <c r="F160" t="n">
-        <v>2.47458249092001</v>
+        <v>2.47464534328346</v>
       </c>
     </row>
     <row r="161">
@@ -3685,7 +3685,7 @@
         <v>17</v>
       </c>
       <c r="F161" t="n">
-        <v>0.954372088840512</v>
+        <v>0.954368707668738</v>
       </c>
     </row>
     <row r="162">
@@ -3705,7 +3705,7 @@
         <v>17</v>
       </c>
       <c r="F162" t="n">
-        <v>-5.35482298267439</v>
+        <v>-5.16036337620491</v>
       </c>
     </row>
     <row r="163">
@@ -3725,7 +3725,7 @@
         <v>17</v>
       </c>
       <c r="F163" t="n">
-        <v>0.543299985658005</v>
+        <v>0.53933302509429</v>
       </c>
     </row>
     <row r="164">
@@ -3745,7 +3745,7 @@
         <v>17</v>
       </c>
       <c r="F164" t="n">
-        <v>1.31498114298631</v>
+        <v>1.32370059257647</v>
       </c>
     </row>
     <row r="165">
@@ -3765,7 +3765,7 @@
         <v>17</v>
       </c>
       <c r="F165" t="n">
-        <v>0.601240831174115</v>
+        <v>0.601240831174114</v>
       </c>
     </row>
     <row r="166">
@@ -3785,7 +3785,7 @@
         <v>17</v>
       </c>
       <c r="F166" t="n">
-        <v>0.04468208415023</v>
+        <v>0.0446820841502302</v>
       </c>
     </row>
     <row r="167">
@@ -3845,7 +3845,7 @@
         <v>17</v>
       </c>
       <c r="F169" t="n">
-        <v>2.39286674954311</v>
+        <v>2.39293191411658</v>
       </c>
     </row>
     <row r="170">
@@ -3865,7 +3865,7 @@
         <v>17</v>
       </c>
       <c r="F170" t="n">
-        <v>0.965225432653672</v>
+        <v>0.965225115983329</v>
       </c>
     </row>
     <row r="171">
@@ -3885,7 +3885,7 @@
         <v>17</v>
       </c>
       <c r="F171" t="n">
-        <v>-5.55219228710021</v>
+        <v>-4.78698833657635</v>
       </c>
     </row>
     <row r="172">
@@ -3905,7 +3905,7 @@
         <v>17</v>
       </c>
       <c r="F172" t="n">
-        <v>0.525554191894914</v>
+        <v>0.52225722916253</v>
       </c>
     </row>
     <row r="173">
@@ -3925,7 +3925,7 @@
         <v>17</v>
       </c>
       <c r="F173" t="n">
-        <v>1.26856250343486</v>
+        <v>1.27665393745096</v>
       </c>
     </row>
     <row r="174">
@@ -3945,7 +3945,7 @@
         <v>17</v>
       </c>
       <c r="F174" t="n">
-        <v>0.547237774031775</v>
+        <v>0.547237774031777</v>
       </c>
     </row>
     <row r="175">
@@ -3985,7 +3985,7 @@
         <v>17</v>
       </c>
       <c r="F176" t="n">
-        <v>0.745234496921973</v>
+        <v>0.745234496921974</v>
       </c>
     </row>
     <row r="177">
@@ -4025,7 +4025,7 @@
         <v>17</v>
       </c>
       <c r="F178" t="n">
-        <v>2.21917944669519</v>
+        <v>2.21924606778337</v>
       </c>
     </row>
     <row r="179">
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
       <c r="F179" t="n">
-        <v>0.474426109297474</v>
+        <v>0.474430669675604</v>
       </c>
     </row>
     <row r="180">
@@ -4065,7 +4065,7 @@
         <v>17</v>
       </c>
       <c r="F180" t="n">
-        <v>-6.32171739215274</v>
+        <v>-5.03419287609657</v>
       </c>
     </row>
     <row r="181">
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
       <c r="F181" t="n">
-        <v>0.549305787168947</v>
+        <v>0.545080778135129</v>
       </c>
     </row>
     <row r="182">
@@ -4105,7 +4105,7 @@
         <v>17</v>
       </c>
       <c r="F182" t="n">
-        <v>1.29739661631097</v>
+        <v>1.30479147245886</v>
       </c>
     </row>
     <row r="183">
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
       <c r="F183" t="n">
-        <v>0.551618788243467</v>
+        <v>0.551618788243465</v>
       </c>
     </row>
     <row r="184">
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
       <c r="F187" t="n">
-        <v>2.36074108862827</v>
+        <v>2.36081152472563</v>
       </c>
     </row>
     <row r="188">
@@ -4225,7 +4225,7 @@
         <v>17</v>
       </c>
       <c r="F188" t="n">
-        <v>0.535311036435523</v>
+        <v>0.535310838848397</v>
       </c>
     </row>
     <row r="189">
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
       <c r="F189" t="n">
-        <v>-4.66947749402979</v>
+        <v>-4.78575345211218</v>
       </c>
     </row>
     <row r="190">
@@ -4265,7 +4265,7 @@
         <v>17</v>
       </c>
       <c r="F190" t="n">
-        <v>0.537151550025299</v>
+        <v>0.533619922755629</v>
       </c>
     </row>
     <row r="191">
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
       <c r="F191" t="n">
-        <v>1.3232311558529</v>
+        <v>1.33110565134988</v>
       </c>
     </row>
     <row r="192">
@@ -4305,7 +4305,7 @@
         <v>17</v>
       </c>
       <c r="F192" t="n">
-        <v>0.633273130952706</v>
+        <v>0.633273130952708</v>
       </c>
     </row>
     <row r="193">
@@ -4345,7 +4345,7 @@
         <v>17</v>
       </c>
       <c r="F194" t="n">
-        <v>0.894728505653335</v>
+        <v>0.894728563747982</v>
       </c>
     </row>
     <row r="195">
@@ -4385,7 +4385,7 @@
         <v>17</v>
       </c>
       <c r="F196" t="n">
-        <v>2.35788807946063</v>
+        <v>2.35796515242948</v>
       </c>
     </row>
     <row r="197">
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
       <c r="F197" t="n">
-        <v>0.659199264551752</v>
+        <v>0.659198767519293</v>
       </c>
     </row>
     <row r="198">
@@ -4425,7 +4425,7 @@
         <v>17</v>
       </c>
       <c r="F198" t="n">
-        <v>-3.16842241864987</v>
+        <v>-3.41153690539111</v>
       </c>
     </row>
     <row r="199">
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
       <c r="F199" t="n">
-        <v>0.477866040054375</v>
+        <v>0.474914595487574</v>
       </c>
     </row>
     <row r="200">
@@ -4465,7 +4465,7 @@
         <v>17</v>
       </c>
       <c r="F200" t="n">
-        <v>1.4003058011129</v>
+        <v>1.40802768955979</v>
       </c>
     </row>
     <row r="201">
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
       <c r="F201" t="n">
-        <v>0.644221547219684</v>
+        <v>0.644221547219685</v>
       </c>
     </row>
     <row r="202">
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
       <c r="F203" t="n">
-        <v>0.888461162530016</v>
+        <v>0.888461212306521</v>
       </c>
     </row>
     <row r="204">
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
       <c r="F205" t="n">
-        <v>2.3931247920262</v>
+        <v>2.39321327521387</v>
       </c>
     </row>
     <row r="206">
@@ -4585,7 +4585,7 @@
         <v>17</v>
       </c>
       <c r="F206" t="n">
-        <v>0.90409694803184</v>
+        <v>0.90409696148463</v>
       </c>
     </row>
     <row r="207">
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
       <c r="F207" t="n">
-        <v>-1.54789937599501</v>
+        <v>-1.6631485283294</v>
       </c>
     </row>
     <row r="208">
@@ -4625,7 +4625,7 @@
         <v>17</v>
       </c>
       <c r="F208" t="n">
-        <v>0.466676769680636</v>
+        <v>0.464205431708711</v>
       </c>
     </row>
     <row r="209">
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="F209" t="n">
-        <v>1.4361338851222</v>
+        <v>1.44356723884257</v>
       </c>
     </row>
     <row r="210">
@@ -4705,7 +4705,7 @@
         <v>17</v>
       </c>
       <c r="F212" t="n">
-        <v>0.897295765455032</v>
+        <v>0.897295815231538</v>
       </c>
     </row>
     <row r="213">
@@ -4745,7 +4745,7 @@
         <v>17</v>
       </c>
       <c r="F214" t="n">
-        <v>2.3555669135116</v>
+        <v>2.35565806836401</v>
       </c>
     </row>
     <row r="215">
@@ -4765,7 +4765,7 @@
         <v>17</v>
       </c>
       <c r="F215" t="n">
-        <v>0.99995476477967</v>
+        <v>0.999951163520206</v>
       </c>
     </row>
     <row r="216">
@@ -4785,7 +4785,7 @@
         <v>17</v>
       </c>
       <c r="F216" t="n">
-        <v>-0.443633397596726</v>
+        <v>-0.56564583735836</v>
       </c>
     </row>
     <row r="217">
@@ -4805,7 +4805,7 @@
         <v>17</v>
       </c>
       <c r="F217" t="n">
-        <v>0.428823788551081</v>
+        <v>0.426750182177686</v>
       </c>
     </row>
     <row r="218">
@@ -4825,7 +4825,7 @@
         <v>17</v>
       </c>
       <c r="F218" t="n">
-        <v>1.48139274187064</v>
+        <v>1.48898595483634</v>
       </c>
     </row>
     <row r="219">
@@ -4845,7 +4845,7 @@
         <v>17</v>
       </c>
       <c r="F219" t="n">
-        <v>0.702122389673077</v>
+        <v>0.702122389673081</v>
       </c>
     </row>
     <row r="220">
@@ -4885,7 +4885,7 @@
         <v>17</v>
       </c>
       <c r="F221" t="n">
-        <v>0.810408816854316</v>
+        <v>0.810408816854319</v>
       </c>
     </row>
     <row r="222">
@@ -4925,7 +4925,7 @@
         <v>17</v>
       </c>
       <c r="F223" t="n">
-        <v>2.36676765824469</v>
+        <v>2.36685006972565</v>
       </c>
     </row>
     <row r="224">
@@ -4945,7 +4945,7 @@
         <v>17</v>
       </c>
       <c r="F224" t="n">
-        <v>0.7089432522171</v>
+        <v>0.708943587870111</v>
       </c>
     </row>
     <row r="225">
@@ -4965,7 +4965,7 @@
         <v>17</v>
       </c>
       <c r="F225" t="n">
-        <v>0.352172889316895</v>
+        <v>0.12351857954225</v>
       </c>
     </row>
     <row r="226">
@@ -4985,7 +4985,7 @@
         <v>17</v>
       </c>
       <c r="F226" t="n">
-        <v>0.396760041052853</v>
+        <v>0.394964916714105</v>
       </c>
     </row>
     <row r="227">
@@ -5005,7 +5005,7 @@
         <v>17</v>
       </c>
       <c r="F227" t="n">
-        <v>1.44418037916472</v>
+        <v>1.45292859393605</v>
       </c>
     </row>
     <row r="228">
@@ -5025,7 +5025,7 @@
         <v>17</v>
       </c>
       <c r="F228" t="n">
-        <v>0.691601587003652</v>
+        <v>0.691601587003651</v>
       </c>
     </row>
     <row r="229">
@@ -5045,7 +5045,7 @@
         <v>17</v>
       </c>
       <c r="F229" t="n">
-        <v>0.0230365523407378</v>
+        <v>0.0230365523407379</v>
       </c>
     </row>
     <row r="230">
@@ -5065,7 +5065,7 @@
         <v>17</v>
       </c>
       <c r="F230" t="n">
-        <v>0.587795769903052</v>
+        <v>0.587795769903056</v>
       </c>
     </row>
     <row r="231">
@@ -5105,7 +5105,7 @@
         <v>17</v>
       </c>
       <c r="F232" t="n">
-        <v>2.44363952478535</v>
+        <v>2.44366740077371</v>
       </c>
     </row>
     <row r="233">
@@ -5125,7 +5125,7 @@
         <v>17</v>
       </c>
       <c r="F233" t="n">
-        <v>0.512666307459527</v>
+        <v>0.512583227710927</v>
       </c>
     </row>
     <row r="234">
@@ -5145,7 +5145,7 @@
         <v>17</v>
       </c>
       <c r="F234" t="n">
-        <v>0.898061012790567</v>
+        <v>0.699863894175815</v>
       </c>
     </row>
     <row r="235">
@@ -5165,7 +5165,7 @@
         <v>17</v>
       </c>
       <c r="F235" t="n">
-        <v>0.36956254009094</v>
+        <v>0.36805137910088</v>
       </c>
     </row>
     <row r="236">
@@ -5185,7 +5185,7 @@
         <v>17</v>
       </c>
       <c r="F236" t="n">
-        <v>1.41551727514387</v>
+        <v>1.42302273283358</v>
       </c>
     </row>
     <row r="237">
@@ -5205,7 +5205,7 @@
         <v>17</v>
       </c>
       <c r="F237" t="n">
-        <v>0.683506708830043</v>
+        <v>0.68350670883004</v>
       </c>
     </row>
     <row r="238">
@@ -5225,7 +5225,7 @@
         <v>17</v>
       </c>
       <c r="F238" t="n">
-        <v>0.0251986896407192</v>
+        <v>0.0251986896407193</v>
       </c>
     </row>
     <row r="239">
@@ -5245,7 +5245,7 @@
         <v>17</v>
       </c>
       <c r="F239" t="n">
-        <v>0.613423029427438</v>
+        <v>0.613423029427436</v>
       </c>
     </row>
     <row r="240">
@@ -5285,7 +5285,7 @@
         <v>17</v>
       </c>
       <c r="F241" t="n">
-        <v>2.5018480448005</v>
+        <v>2.50175090044582</v>
       </c>
     </row>
     <row r="242">
@@ -5305,7 +5305,7 @@
         <v>17</v>
       </c>
       <c r="F242" t="n">
-        <v>0.496376542195932</v>
+        <v>0.49637237542754</v>
       </c>
     </row>
     <row r="243">
@@ -5325,7 +5325,7 @@
         <v>17</v>
       </c>
       <c r="F243" t="n">
-        <v>1.9066065120662</v>
+        <v>1.63794885928646</v>
       </c>
     </row>
     <row r="244">
@@ -5345,7 +5345,7 @@
         <v>17</v>
       </c>
       <c r="F244" t="n">
-        <v>0.355216960960562</v>
+        <v>0.353918102601225</v>
       </c>
     </row>
     <row r="245">
@@ -5365,7 +5365,7 @@
         <v>17</v>
       </c>
       <c r="F245" t="n">
-        <v>1.47133163878624</v>
+        <v>1.47851398338005</v>
       </c>
     </row>
     <row r="246">
@@ -5385,7 +5385,7 @@
         <v>17</v>
       </c>
       <c r="F246" t="n">
-        <v>0.64189806878466</v>
+        <v>0.641898068784663</v>
       </c>
     </row>
     <row r="247">
@@ -5405,7 +5405,7 @@
         <v>17</v>
       </c>
       <c r="F247" t="n">
-        <v>0.0224964748868344</v>
+        <v>0.0224964748868341</v>
       </c>
     </row>
     <row r="248">
@@ -5425,7 +5425,7 @@
         <v>17</v>
       </c>
       <c r="F248" t="n">
-        <v>0.578451864528402</v>
+        <v>0.578451864528404</v>
       </c>
     </row>
     <row r="249">
@@ -5465,7 +5465,7 @@
         <v>17</v>
       </c>
       <c r="F250" t="n">
-        <v>2.6062210772519</v>
+        <v>2.60599155270689</v>
       </c>
     </row>
     <row r="251">
@@ -5485,7 +5485,7 @@
         <v>17</v>
       </c>
       <c r="F251" t="n">
-        <v>0.637180092413143</v>
+        <v>0.637184434443839</v>
       </c>
     </row>
     <row r="252">
@@ -5505,7 +5505,7 @@
         <v>17</v>
       </c>
       <c r="F252" t="n">
-        <v>1.76809502258884</v>
+        <v>1.55081781199657</v>
       </c>
     </row>
     <row r="253">
@@ -5525,7 +5525,7 @@
         <v>17</v>
       </c>
       <c r="F253" t="n">
-        <v>0.34405507877465</v>
+        <v>0.342932513623164</v>
       </c>
     </row>
     <row r="254">
@@ -5545,7 +5545,7 @@
         <v>17</v>
       </c>
       <c r="F254" t="n">
-        <v>1.47265367063607</v>
+        <v>1.47924732041053</v>
       </c>
     </row>
     <row r="255">
@@ -5565,7 +5565,7 @@
         <v>17</v>
       </c>
       <c r="F255" t="n">
-        <v>0.632154620607994</v>
+        <v>0.632154620607993</v>
       </c>
     </row>
     <row r="256">
@@ -5585,7 +5585,7 @@
         <v>17</v>
       </c>
       <c r="F256" t="n">
-        <v>0.0241709802115595</v>
+        <v>0.0241709802115596</v>
       </c>
     </row>
     <row r="257">
@@ -5605,7 +5605,7 @@
         <v>17</v>
       </c>
       <c r="F257" t="n">
-        <v>0.611873085473887</v>
+        <v>0.611873085473889</v>
       </c>
     </row>
     <row r="258">
@@ -5645,7 +5645,7 @@
         <v>17</v>
       </c>
       <c r="F259" t="n">
-        <v>2.64663970490124</v>
+        <v>2.64629671216299</v>
       </c>
     </row>
     <row r="260">
@@ -5665,7 +5665,7 @@
         <v>17</v>
       </c>
       <c r="F260" t="n">
-        <v>0.624014819331604</v>
+        <v>0.62401684848429</v>
       </c>
     </row>
     <row r="261">
@@ -5685,7 +5685,7 @@
         <v>17</v>
       </c>
       <c r="F261" t="n">
-        <v>3.4707558695007</v>
+        <v>3.30001491372722</v>
       </c>
     </row>
     <row r="262">
@@ -5705,7 +5705,7 @@
         <v>17</v>
       </c>
       <c r="F262" t="n">
-        <v>0.347894961968845</v>
+        <v>0.346923740513856</v>
       </c>
     </row>
     <row r="263">
@@ -5725,7 +5725,7 @@
         <v>17</v>
       </c>
       <c r="F263" t="n">
-        <v>1.55500084380167</v>
+        <v>1.56059408545068</v>
       </c>
     </row>
     <row r="264">
@@ -5745,7 +5745,7 @@
         <v>17</v>
       </c>
       <c r="F264" t="n">
-        <v>0.577809407510289</v>
+        <v>0.577809407510287</v>
       </c>
     </row>
     <row r="265">
@@ -5765,7 +5765,7 @@
         <v>17</v>
       </c>
       <c r="F265" t="n">
-        <v>0.0223678620548521</v>
+        <v>0.022367862054852</v>
       </c>
     </row>
     <row r="266">
@@ -5785,7 +5785,7 @@
         <v>17</v>
       </c>
       <c r="F266" t="n">
-        <v>0.637299522518803</v>
+        <v>0.637299522518807</v>
       </c>
     </row>
     <row r="267">
@@ -5825,7 +5825,7 @@
         <v>17</v>
       </c>
       <c r="F268" t="n">
-        <v>2.61431832932699</v>
+        <v>2.61391907901154</v>
       </c>
     </row>
     <row r="269">
@@ -5845,7 +5845,7 @@
         <v>17</v>
       </c>
       <c r="F269" t="n">
-        <v>0.615651607514402</v>
+        <v>0.615646962117236</v>
       </c>
     </row>
     <row r="270">
@@ -5865,7 +5865,7 @@
         <v>17</v>
       </c>
       <c r="F270" t="n">
-        <v>3.27902894074872</v>
+        <v>3.12234771059338</v>
       </c>
     </row>
     <row r="271">
@@ -5885,7 +5885,7 @@
         <v>17</v>
       </c>
       <c r="F271" t="n">
-        <v>0.340323041272104</v>
+        <v>0.339477122804047</v>
       </c>
     </row>
     <row r="272">
@@ -5905,7 +5905,7 @@
         <v>17</v>
       </c>
       <c r="F272" t="n">
-        <v>1.54980916293477</v>
+        <v>1.54483304941958</v>
       </c>
     </row>
     <row r="273">
@@ -5925,7 +5925,7 @@
         <v>17</v>
       </c>
       <c r="F273" t="n">
-        <v>0.548354575448097</v>
+        <v>0.548354575448096</v>
       </c>
     </row>
     <row r="274">
@@ -5945,7 +5945,7 @@
         <v>17</v>
       </c>
       <c r="F274" t="n">
-        <v>0.0204836853754397</v>
+        <v>0.0204836853754395</v>
       </c>
     </row>
     <row r="275">
@@ -5965,7 +5965,7 @@
         <v>17</v>
       </c>
       <c r="F275" t="n">
-        <v>0.411486186085781</v>
+        <v>0.411486186085785</v>
       </c>
     </row>
     <row r="276">
@@ -6005,7 +6005,7 @@
         <v>17</v>
       </c>
       <c r="F277" t="n">
-        <v>2.45866277934709</v>
+        <v>2.45832197516325</v>
       </c>
     </row>
     <row r="278">
@@ -6025,7 +6025,7 @@
         <v>17</v>
       </c>
       <c r="F278" t="n">
-        <v>0.288076954035445</v>
+        <v>0.288071144143879</v>
       </c>
     </row>
     <row r="279">
@@ -6045,7 +6045,7 @@
         <v>17</v>
       </c>
       <c r="F279" t="n">
-        <v>1.24290440684307</v>
+        <v>1.14077631263138</v>
       </c>
     </row>
     <row r="280">
@@ -6065,7 +6065,7 @@
         <v>17</v>
       </c>
       <c r="F280" t="n">
-        <v>0.313137269595219</v>
+        <v>0.312400011519759</v>
       </c>
     </row>
     <row r="281">
@@ -6085,7 +6085,7 @@
         <v>17</v>
       </c>
       <c r="F281" t="n">
-        <v>1.5778859912278</v>
+        <v>1.56825769982376</v>
       </c>
     </row>
     <row r="282">
@@ -6105,7 +6105,7 @@
         <v>17</v>
       </c>
       <c r="F282" t="n">
-        <v>0.522963211652494</v>
+        <v>0.522963211652495</v>
       </c>
     </row>
     <row r="283">
@@ -6125,7 +6125,7 @@
         <v>17</v>
       </c>
       <c r="F283" t="n">
-        <v>0.023273846469944</v>
+        <v>0.0232738464699438</v>
       </c>
     </row>
     <row r="284">
@@ -6145,7 +6145,7 @@
         <v>17</v>
       </c>
       <c r="F284" t="n">
-        <v>0.309328562293569</v>
+        <v>0.309328562293571</v>
       </c>
     </row>
     <row r="285">
@@ -6185,7 +6185,7 @@
         <v>17</v>
       </c>
       <c r="F286" t="n">
-        <v>2.53589357755681</v>
+        <v>2.53539145517665</v>
       </c>
     </row>
     <row r="287">
@@ -6205,7 +6205,7 @@
         <v>17</v>
       </c>
       <c r="F287" t="n">
-        <v>0.294469041094015</v>
+        <v>0.294638450399666</v>
       </c>
     </row>
     <row r="288">
@@ -6225,7 +6225,7 @@
         <v>17</v>
       </c>
       <c r="F288" t="n">
-        <v>0.811516929339975</v>
+        <v>0.848480482371383</v>
       </c>
     </row>
     <row r="289">
@@ -6245,7 +6245,7 @@
         <v>17</v>
       </c>
       <c r="F289" t="n">
-        <v>0.317495067376294</v>
+        <v>0.316654876406955</v>
       </c>
     </row>
     <row r="290">
@@ -6265,7 +6265,7 @@
         <v>17</v>
       </c>
       <c r="F290" t="n">
-        <v>1.59302365590193</v>
+        <v>1.58299979809701</v>
       </c>
     </row>
     <row r="291">
@@ -6285,7 +6285,7 @@
         <v>17</v>
       </c>
       <c r="F291" t="n">
-        <v>0.414621430302801</v>
+        <v>0.414621430302804</v>
       </c>
     </row>
     <row r="292">
@@ -6305,7 +6305,7 @@
         <v>17</v>
       </c>
       <c r="F292" t="n">
-        <v>0.0172109821320995</v>
+        <v>0.0172109821320996</v>
       </c>
     </row>
     <row r="293">
@@ -6325,7 +6325,7 @@
         <v>17</v>
       </c>
       <c r="F293" t="n">
-        <v>0.266699606087663</v>
+        <v>0.266699606087664</v>
       </c>
     </row>
     <row r="294">
@@ -6345,7 +6345,7 @@
         <v>17</v>
       </c>
       <c r="F294" t="n">
-        <v>8.42637853961746</v>
+        <v>8.63549317987018</v>
       </c>
     </row>
     <row r="295">
@@ -6365,7 +6365,7 @@
         <v>17</v>
       </c>
       <c r="F295" t="n">
-        <v>2.64459399076067</v>
+        <v>2.64398455447573</v>
       </c>
     </row>
     <row r="296">
@@ -6385,7 +6385,7 @@
         <v>17</v>
       </c>
       <c r="F296" t="n">
-        <v>0.27498940266152</v>
+        <v>0.27492414456615</v>
       </c>
     </row>
     <row r="297">
@@ -6405,7 +6405,7 @@
         <v>17</v>
       </c>
       <c r="F297" t="n">
-        <v>0.339291963892936</v>
+        <v>0.198204458861221</v>
       </c>
     </row>
     <row r="298">
@@ -6425,7 +6425,187 @@
         <v>17</v>
       </c>
       <c r="F298" t="n">
-        <v>0.314028683742032</v>
+        <v>0.313179068426808</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="s">
+        <v>14</v>
+      </c>
+      <c r="B299" t="s">
+        <v>15</v>
+      </c>
+      <c r="C299" t="s">
+        <v>16</v>
+      </c>
+      <c r="D299" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E299" t="s">
+        <v>17</v>
+      </c>
+      <c r="F299" t="n">
+        <v>1.53472625154997</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="s">
+        <v>14</v>
+      </c>
+      <c r="B300" t="s">
+        <v>15</v>
+      </c>
+      <c r="C300" t="s">
+        <v>18</v>
+      </c>
+      <c r="D300" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E300" t="s">
+        <v>17</v>
+      </c>
+      <c r="F300" t="n">
+        <v>0.399158236469943</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="s">
+        <v>14</v>
+      </c>
+      <c r="B301" t="s">
+        <v>15</v>
+      </c>
+      <c r="C301" t="s">
+        <v>19</v>
+      </c>
+      <c r="D301" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E301" t="s">
+        <v>17</v>
+      </c>
+      <c r="F301" t="n">
+        <v>0.0153714425612722</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="s">
+        <v>14</v>
+      </c>
+      <c r="B302" t="s">
+        <v>15</v>
+      </c>
+      <c r="C302" t="s">
+        <v>20</v>
+      </c>
+      <c r="D302" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E302" t="s">
+        <v>17</v>
+      </c>
+      <c r="F302" t="n">
+        <v>0.228074119481968</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="s">
+        <v>14</v>
+      </c>
+      <c r="B303" t="s">
+        <v>15</v>
+      </c>
+      <c r="C303" t="s">
+        <v>21</v>
+      </c>
+      <c r="D303" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E303" t="s">
+        <v>17</v>
+      </c>
+      <c r="F303" t="n">
+        <v>5.47189023123341</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="s">
+        <v>14</v>
+      </c>
+      <c r="B304" t="s">
+        <v>15</v>
+      </c>
+      <c r="C304" t="s">
+        <v>22</v>
+      </c>
+      <c r="D304" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E304" t="s">
+        <v>17</v>
+      </c>
+      <c r="F304" t="n">
+        <v>2.64794695158221</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="s">
+        <v>14</v>
+      </c>
+      <c r="B305" t="s">
+        <v>15</v>
+      </c>
+      <c r="C305" t="s">
+        <v>23</v>
+      </c>
+      <c r="D305" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E305" t="s">
+        <v>17</v>
+      </c>
+      <c r="F305" t="n">
+        <v>0.265156444320403</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="s">
+        <v>14</v>
+      </c>
+      <c r="B306" t="s">
+        <v>15</v>
+      </c>
+      <c r="C306" t="s">
+        <v>24</v>
+      </c>
+      <c r="D306" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E306" t="s">
+        <v>17</v>
+      </c>
+      <c r="F306" t="n">
+        <v>2.13079449825119</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="s">
+        <v>14</v>
+      </c>
+      <c r="B307" t="s">
+        <v>15</v>
+      </c>
+      <c r="C307" t="s">
+        <v>25</v>
+      </c>
+      <c r="D307" t="n">
+        <v>2023</v>
+      </c>
+      <c r="E307" t="s">
+        <v>17</v>
+      </c>
+      <c r="F307" t="n">
+        <v>0.300134208952372</v>
       </c>
     </row>
   </sheetData>
